--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.147.17.251\Homeassistant\config\www\ellousa_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\web_rami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A771C6A-A485-4EE5-9ECD-CCA2DF399C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EDDE15-1FE8-46D7-A6B6-A5CD1B52EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
